--- a/20250621高田前測進度.xlsx
+++ b/20250621高田前測進度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\研究\鼠類對水鹿排遺反應\高田前測\Raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565C8275-E846-488D-8CF2-E25E1BB16C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3698482B-D92F-4CA5-BFC8-4524656280ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,7 +213,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>由於先前我只記錄進入與離開動物房的時間，目前我以實驗前一日離開動物房的時間，再往前回推一小時，做為前一日餵食的時段。(離開前一小時通常都換完食盆，開始整理環境)</t>
+    <t>由於先前我只記錄進入與離開動物房的時間，目前我以實驗前一日離開動物房的時間，做為前一日餵食的時段。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1257,7 +1257,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1">
         <v>0.59248842592592588</v>
@@ -1304,7 +1304,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1">
         <v>0.5912384259259259</v>
@@ -1351,7 +1351,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1">
         <v>0.59193287037037035</v>
@@ -1398,7 +1398,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1">
         <v>0.59791666666666665</v>
@@ -1445,7 +1445,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1">
         <v>0.57927083333333329</v>
@@ -1492,7 +1492,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1">
         <v>0.66469907407407403</v>
@@ -1536,7 +1536,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1">
         <v>0.57543981481481477</v>
@@ -1580,7 +1580,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1">
         <v>0.68386574074074069</v>
@@ -1627,7 +1627,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="1">
         <v>0.59818287037037032</v>
@@ -1674,7 +1674,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1">
         <v>0.58427083333333329</v>
@@ -1718,7 +1718,7 @@
         <v>31</v>
       </c>
       <c r="F12" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1">
         <v>0.58557870370370368</v>
@@ -1762,7 +1762,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="1">
         <v>0.67194444444444446</v>
@@ -1806,7 +1806,7 @@
         <v>35</v>
       </c>
       <c r="F14" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1">
         <v>0.58337962962962964</v>
@@ -1850,7 +1850,7 @@
         <v>35</v>
       </c>
       <c r="F15" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" s="1">
         <v>0.6849305555555556</v>
@@ -1894,7 +1894,7 @@
         <v>38</v>
       </c>
       <c r="F16" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="1">
         <v>0.58343750000000005</v>
@@ -1941,7 +1941,7 @@
         <v>38</v>
       </c>
       <c r="F17" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="1">
         <v>0.68662037037037038</v>
@@ -1985,7 +1985,7 @@
         <v>38</v>
       </c>
       <c r="F18" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="1">
         <v>0.5834259259259259</v>
@@ -2029,7 +2029,7 @@
         <v>43</v>
       </c>
       <c r="F19" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="1">
         <v>0.68125000000000002</v>
@@ -2073,7 +2073,7 @@
         <v>38</v>
       </c>
       <c r="F20" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" s="1">
         <v>0.59299768518518514</v>
@@ -2115,7 +2115,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2169,8 +2169,8 @@
         <v>0.55763888888888891</v>
       </c>
       <c r="E2" s="3">
-        <f>HOUR(D2)-1</f>
-        <v>12</v>
+        <f>HOUR(D2)</f>
+        <v>13</v>
       </c>
       <c r="F2" s="1">
         <v>0.59248842592592588</v>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H20" si="1">24+(G2-E2)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2198,8 +2198,8 @@
         <v>0.72152777777777777</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E20" si="2">HOUR(D3)-1</f>
-        <v>16</v>
+        <f t="shared" ref="E3:E20" si="2">HOUR(D3)</f>
+        <v>17</v>
       </c>
       <c r="F3" s="1">
         <v>0.5912384259259259</v>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1">
         <v>0.59193287037037035</v>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1">
         <v>0.59791666666666665</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1">
         <v>0.57927083333333329</v>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1">
         <v>0.66469907407407403</v>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E8" s="3">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1">
         <v>0.57543981481481477</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1">
         <v>0.68386574074074069</v>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1">
         <v>0.59818287037037032</v>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1">
         <v>0.58427083333333329</v>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1">
         <v>0.58557870370370368</v>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1">
         <v>0.67194444444444446</v>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="E14" s="3">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1">
         <v>0.58337962962962964</v>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1">
         <v>0.6849305555555556</v>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="E16" s="3">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1">
         <v>0.58343750000000005</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="E17" s="3">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1">
         <v>0.68662037037037038</v>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="E18" s="3">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" s="1">
         <v>0.5834259259259259</v>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="E19" s="3">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" s="1">
         <v>0.68125000000000002</v>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" s="1">
         <v>0.59299768518518514</v>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">

--- a/20250621高田前測進度.xlsx
+++ b/20250621高田前測進度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\研究\鼠類對水鹿排遺反應\高田前測\Raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3698482B-D92F-4CA5-BFC8-4524656280ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E55E75A-EC74-487F-9819-641DFFBC2863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20250621高田前測進度" sheetId="1" r:id="rId1"/>
@@ -221,6 +221,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -807,7 +810,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,6 +824,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2112,10 +2118,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2127,6 +2133,7 @@
     <col min="6" max="6" width="11.21875" customWidth="1"/>
     <col min="7" max="7" width="19.109375" customWidth="1"/>
     <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">

--- a/20250621高田前測進度.xlsx
+++ b/20250621高田前測進度.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\研究\鼠類對水鹿排遺反應\高田前測\Raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E55E75A-EC74-487F-9819-641DFFBC2863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6A95D9-E66D-443B-9E74-CADB2DF4BA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20250621高田前測進度" sheetId="1" r:id="rId1"/>
     <sheet name="20250621個體飢餓時數" sheetId="3" r:id="rId2"/>
     <sheet name="20250621放置順序" sheetId="2" r:id="rId3"/>
+    <sheet name="20250622影片觀看進度" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="59">
   <si>
     <t>Trial</t>
   </si>
@@ -215,6 +216,12 @@
   <si>
     <t>由於先前我只記錄進入與離開動物房的時間，目前我以實驗前一日離開動物房的時間，做為前一日餵食的時段。</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
   </si>
 </sst>
 </file>
@@ -385,7 +392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,6 +570,24 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -810,7 +835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,6 +852,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2120,7 +2154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -2730,7 +2764,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3146,4 +3180,249 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B1BEB2-921E-4B36-B559-A4054CCDF068}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6">
+        <v>20250430</v>
+      </c>
+      <c r="D2" s="6">
+        <v>20250501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="6">
+        <v>20250502</v>
+      </c>
+      <c r="D3" s="6">
+        <v>20250501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6">
+        <v>20250504</v>
+      </c>
+      <c r="D4" s="6">
+        <v>20250505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="6">
+        <v>20250505</v>
+      </c>
+      <c r="D5" s="6">
+        <v>20250507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6">
+        <v>20250507</v>
+      </c>
+      <c r="D6" s="6">
+        <v>20250508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7">
+        <v>20250527</v>
+      </c>
+      <c r="D7" s="7">
+        <v>20250527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7">
+        <v>20250528</v>
+      </c>
+      <c r="D8" s="7">
+        <v>20250529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="7">
+        <v>20250610</v>
+      </c>
+      <c r="D9" s="7">
+        <v>20250614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="7">
+        <v>20250614</v>
+      </c>
+      <c r="D10" s="7">
+        <v>20250615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8">
+        <v>59215</v>
+      </c>
+      <c r="C11" s="8">
+        <v>20250615</v>
+      </c>
+      <c r="D11" s="8">
+        <v>20250615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8">
+        <v>59181</v>
+      </c>
+      <c r="C12" s="8">
+        <v>20250616</v>
+      </c>
+      <c r="D12" s="8">
+        <v>20250616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8">
+        <v>12693</v>
+      </c>
+      <c r="C13" s="8">
+        <v>20250615</v>
+      </c>
+      <c r="D13" s="8">
+        <v>20250615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8">
+        <v>59200</v>
+      </c>
+      <c r="C14" s="8">
+        <v>20250615</v>
+      </c>
+      <c r="D14" s="8">
+        <v>20250616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8">
+        <v>20250616</v>
+      </c>
+      <c r="D15" s="8">
+        <v>20250619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>9</v>
+      </c>
+      <c r="B16" s="8">
+        <v>59187</v>
+      </c>
+      <c r="C16" s="8">
+        <v>20250620</v>
+      </c>
+      <c r="D16" s="8">
+        <v>20250620</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>